--- a/data/output/FV2410_FV2404/UTILMD/55140.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55140.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7208" uniqueCount="496">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7229" uniqueCount="496">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1641,6 +1641,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U309" totalsRowShown="0">
+  <autoFilter ref="A1:U309"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1930,7 +1960,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -17132,5 +17165,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55140.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55140.xlsx
@@ -2981,7 +2981,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5523,7 +5523,7 @@
         <v>461</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5685,7 +5685,7 @@
         <v>462</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5889,7 +5889,7 @@
         <v>464</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -6093,7 +6093,7 @@
         <v>466</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -6297,7 +6297,7 @@
         <v>468</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -6501,7 +6501,7 @@
         <v>470</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6705,7 +6705,7 @@
         <v>471</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -7105,7 +7105,7 @@
         <v>473</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -7879,7 +7879,7 @@
         <v>474</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -8027,7 +8027,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -8441,7 +8441,7 @@
         <v>475</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8907,7 +8907,7 @@
         <v>475</v>
       </c>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -9343,7 +9343,7 @@
         <v>475</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -10467,7 +10467,7 @@
         <v>477</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -10775,7 +10775,7 @@
         <v>478</v>
       </c>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -11079,7 +11079,7 @@
         <v>479</v>
       </c>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -11227,7 +11227,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -11391,7 +11391,7 @@
         <v>480</v>
       </c>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -11557,7 +11557,7 @@
         <v>481</v>
       </c>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -11723,7 +11723,7 @@
         <v>482</v>
       </c>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -11889,7 +11889,7 @@
         <v>483</v>
       </c>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -12051,7 +12051,7 @@
         <v>484</v>
       </c>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -12309,7 +12309,7 @@
         <v>485</v>
       </c>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -12567,7 +12567,7 @@
         <v>486</v>
       </c>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -12823,7 +12823,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -13079,7 +13079,7 @@
         <v>487</v>
       </c>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -13349,7 +13349,7 @@
         <v>488</v>
       </c>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -13565,7 +13565,7 @@
         <v>489</v>
       </c>
       <c r="L206" s="4"/>
-      <c r="M206" s="2" t="s">
+      <c r="M206" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N206" s="2" t="s">
@@ -13781,7 +13781,7 @@
         <v>490</v>
       </c>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -14105,7 +14105,7 @@
         <v>486</v>
       </c>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -14375,7 +14375,7 @@
         <v>491</v>
       </c>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -14533,7 +14533,7 @@
         <v>492</v>
       </c>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -14837,7 +14837,7 @@
         <v>493</v>
       </c>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -14985,7 +14985,7 @@
       </c>
       <c r="K233" s="2"/>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -15143,7 +15143,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -15289,7 +15289,7 @@
       </c>
       <c r="K239" s="2"/>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -15611,7 +15611,7 @@
         <v>494</v>
       </c>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -15759,7 +15759,7 @@
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="4"/>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N248" s="2" t="s">
@@ -15919,7 +15919,7 @@
         <v>475</v>
       </c>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -16067,7 +16067,7 @@
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -16503,7 +16503,7 @@
       </c>
       <c r="K262" s="2"/>
       <c r="L262" s="4"/>
-      <c r="M262" s="2" t="s">
+      <c r="M262" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N262" s="2" t="s">
@@ -16659,7 +16659,7 @@
         <v>495</v>
       </c>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -16973,7 +16973,7 @@
       </c>
       <c r="K271" s="2"/>
       <c r="L271" s="4"/>
-      <c r="M271" s="2" t="s">
+      <c r="M271" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N271" s="2" t="s">
@@ -17133,7 +17133,7 @@
         <v>495</v>
       </c>
       <c r="L274" s="4"/>
-      <c r="M274" s="2" t="s">
+      <c r="M274" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N274" s="2" t="s">
@@ -17667,7 +17667,7 @@
       </c>
       <c r="K284" s="2"/>
       <c r="L284" s="4"/>
-      <c r="M284" s="2" t="s">
+      <c r="M284" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N284" s="2" t="s">
@@ -17827,7 +17827,7 @@
         <v>495</v>
       </c>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -18359,7 +18359,7 @@
         <v>495</v>
       </c>
       <c r="L297" s="4"/>
-      <c r="M297" s="2" t="s">
+      <c r="M297" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N297" s="2" t="s">
@@ -18891,7 +18891,7 @@
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N307" s="2"/>
